--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.3_TC2.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1215889158640626</v>
+        <v>0.09982210385769184</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2314808735537284</v>
+        <v>0.2588900929565529</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.23148087355372837, 'ngram_match_score': 0.12158891586406263, 'weighted_ngram_match_score': 0.1318482716215864, 'syntax_match_score': 0.5034722222222222, 'dataflow_match_score': 0.16901408450704225}</t>
+          <t>{'codebleu': 0.25889009295655285, 'ngram_match_score': 0.09982210385769184, 'weighted_ngram_match_score': 0.10861581100451317, 'syntax_match_score': 0.5243055555555556, 'dataflow_match_score': 0.3028169014084507}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9214534326435898</v>
+        <v>0.8924435273001929</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
